--- a/Backup/Manual/data_backup.xlsx
+++ b/Backup/Manual/data_backup.xlsx
@@ -621,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,6 +692,1089 @@
       </c>
       <c r="E3" s="2" t="n">
         <v>45482.56208333333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:uBFS5kqH6cHAIKnVr9HZKWjaf5c4aaBwzQgzeTMfnM9AOkGGEnbTeaNO3g3gfZ8ThrBPXX3zPS4JPr4QMQX/JTidRv7mqM0hACfcRmRgWmygxtqVFiOxdpCtZ1Q4mw8Uf2NWF3Jf4rC+Mq/hrwh+kA==</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45482.56212962963</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45482.56212962963</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45482.56240740741</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45482.56240740741</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45482.57136574074</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45482.57136574074</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45482.57188657407</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45482.57188657407</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45482.6</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45482.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45482.60024305555</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>45482.60024305555</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45482.92751157407</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>45482.92751157407</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45482.92756944444</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>45482.92756944444</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>45482.92800925926</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>45482.92800925926</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45482.92826388889</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>45482.92826388889</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>45482.92949074074</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>45482.92949074074</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45482.92952546296</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>45482.92952546296</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45482.93148148148</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>45482.93148148148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45482.93155092592</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>45482.93155092592</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45482.93203703704</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>45482.93203703704</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45482.93207175926</v>
+      </c>
+      <c r="E19" s="2" t="n">
+        <v>45482.93207175926</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45482.93293981482</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>45482.93293981482</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45482.93313657407</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>45482.93313657407</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45482.93680555555</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>45482.93680555555</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45482.93702546296</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>45482.93702546296</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45482.93811342592</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>45482.93811342592</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45482.93824074074</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>45482.93824074074</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45482.93923611111</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>45482.93923611111</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45482.93930555556</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>45482.93930555556</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45482.94104166667</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>45482.94104166667</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45482.94114583333</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>45482.94114583333</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45482.94344907408</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>45482.94344907408</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45482.94362268518</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>45482.94362268518</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45482.9446875</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45482.9446875</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45482.94583333333</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>45482.94583333333</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45482.94712962963</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>45482.94712962963</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45482.94723379629</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45482.94723379629</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45482.94753472223</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45482.94753472223</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45482.94770833333</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45482.94770833333</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45482.94822916666</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45482.94822916666</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45482.94829861111</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45482.94829861111</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45482.94902777778</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45482.94902777778</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>45482.94914351852</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45482.94914351852</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>45482.94984953704</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45482.94984953704</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>45482.94994212963</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45482.94994212963</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>45482.95493055556</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45482.95493055556</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45482.95545138889</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45482.95545138889</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45482.95664351852</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45482.95664351852</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45482.95706018519</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45482.95706018519</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45482.95734953704</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45482.95734953704</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>45482.95780092593</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45482.95780092593</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>45482.97925925926</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45482.97925925926</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>45482.97934027778</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45482.97934027778</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>45482.98368055555</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45482.98368055555</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>45482.98399305555</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45482.98399305555</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>45482.9843287037</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45482.9843287037</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>45482.98539351852</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45482.98539351852</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>45482.98569444445</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45482.98569444445</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>45482.98583333333</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45482.98583333333</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>45482.98895833334</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45482.98895833334</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>45482.98909722222</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45482.98909722222</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>45482.99136574074</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45482.99136574074</v>
       </c>
     </row>
   </sheetData>

--- a/Backup/Manual/data_backup.xlsx
+++ b/Backup/Manual/data_backup.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,43 +525,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45481.25195601852</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:AOnRcZOYf5CMZVpFcvJmuw==</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:dM2gDAw9kxjuqpLfzOe5KA==</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:1KNmE5nWhdpAC5dOFs2plg==</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:TR4vrsgFPzDb7TfdgWL86DvE6i6ezSiUaLP2gxJXxjM=</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qzvdfvMI+xwPaDLENB3qWA==</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>45482.53090277778</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
   </sheetData>
@@ -575,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,6 +572,111 @@
         <is>
           <t>created_at</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:D7uJsqWJhgz+wK52lpAFOA==</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:wVQRn4klfOKIROkYUlZdHM1FghNVkFyi1M58f8E1Or4=</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45483.63101851852</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45483.63101851852</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:ZLXHVbIsIF/FwIaMEN39LA==</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:CBk5vbIjtqT+IKGTHLuZFg==</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45483.63101851852</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45483.63101851852</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:BxAg+NBmDVH77/Q5pOZPvA==</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:MIxasOLdBlY/sAke0VSjXA==</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45483.63101851852</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45483.63101851852</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:BxAg+NBmDVH77/Q5pOZPvA==</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:MIxasOLdBlY/sAke0VSjXA==</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45483.63101851852</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45483.63101851852</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:BxAg+NBmDVH77/Q5pOZPvA==</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:H97pItWCUV43FWR2bbCFmA==</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45483.63101851852</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45483.63101851852</v>
       </c>
     </row>
   </sheetData>
@@ -621,7 +690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,14 +734,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:uQkfdCQN9h7khXbtTheaGg==</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45482.56115740741</v>
+        <v>45483.63101851852</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45482.56115740741</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="3">
@@ -684,14 +753,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:DSIyafxw8+0qIRqAmSi2dA==</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45482.56208333333</v>
+        <v>45483.63101851852</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>45482.56208333333</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="4">
@@ -703,14 +772,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:uBFS5kqH6cHAIKnVr9HZKWjaf5c4aaBwzQgzeTMfnM9AOkGGEnbTeaNO3g3gfZ8ThrBPXX3zPS4JPr4QMQX/JTidRv7mqM0hACfcRmRgWmygxtqVFiOxdpCtZ1Q4mw8Uf2NWF3Jf4rC+Mq/hrwh+kA==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:uQkfdCQN9h7khXbtTheaGg==</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45482.56212962963</v>
+        <v>45483.63101851852</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>45482.56212962963</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="5">
@@ -722,14 +791,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:DSIyafxw8+0qIRqAmSi2dA==</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45482.56240740741</v>
+        <v>45483.63101851852</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>45482.56240740741</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="6">
@@ -737,18 +806,18 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:uQkfdCQN9h7khXbtTheaGg==</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45482.57136574074</v>
+        <v>45483.63101851852</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>45482.57136574074</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="7">
@@ -756,18 +825,18 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45482.57188657407</v>
+        <v>45483.63122685185</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>45482.57188657407</v>
+        <v>45483.63122685185</v>
       </c>
     </row>
     <row r="8">
@@ -779,14 +848,14 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:Vqlz5k1Pcc5orniVOG9oQw==</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45482.6</v>
+        <v>45483.63146990741</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>45482.6</v>
+        <v>45483.63146990741</v>
       </c>
     </row>
     <row r="9">
@@ -798,14 +867,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:u/a+IRLWZC2pViTziO8orI+fvDRfVgjDkY98k/Fg3Wc=</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45482.60024305555</v>
+        <v>45483.63182870371</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>45482.60024305555</v>
+        <v>45483.63182870371</v>
       </c>
     </row>
     <row r="10">
@@ -813,18 +882,18 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45482.92751157407</v>
+        <v>45483.63193287037</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>45482.92751157407</v>
+        <v>45483.63193287037</v>
       </c>
     </row>
     <row r="11">
@@ -832,18 +901,18 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45482.92756944444</v>
+        <v>45483.63469907407</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>45482.92756944444</v>
+        <v>45483.63469907407</v>
       </c>
     </row>
     <row r="12">
@@ -851,18 +920,18 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:Do4C4ysgeF92X8p1KCdnxgLghUBo/Q7WiJ3O/lobMMA=</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45482.92800925926</v>
+        <v>45483.63509259259</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>45482.92800925926</v>
+        <v>45483.63509259259</v>
       </c>
     </row>
     <row r="13">
@@ -870,18 +939,18 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:u/a+IRLWZC2pViTziO8orI+fvDRfVgjDkY98k/Fg3Wc=</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45482.92826388889</v>
+        <v>45483.63540509259</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>45482.92826388889</v>
+        <v>45483.63540509259</v>
       </c>
     </row>
     <row r="14">
@@ -889,18 +958,18 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qPOn6B5LB/UorilbzL44leUv4AMQfuHxj1H9i2CMenp/n+gqt8/O5Yyi4fIAQSS59Rv957Cblpz/iFsyhNFg0Q==</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45482.92949074074</v>
+        <v>45483.6365162037</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>45482.92949074074</v>
+        <v>45483.6365162037</v>
       </c>
     </row>
     <row r="15">
@@ -908,18 +977,18 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:O481Z1lJMfrkGmBrSBmELGvn5TM10y/kFtQArDVIvc8=</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45482.92952546296</v>
+        <v>45483.63821759259</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>45482.92952546296</v>
+        <v>45483.63821759259</v>
       </c>
     </row>
     <row r="16">
@@ -927,18 +996,18 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qqY+0Xe0fupfP8Z6YYIGwKplrkgy+KSLyicBDqrdvT0=</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45482.93148148148</v>
+        <v>45483.63998842592</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>45482.93148148148</v>
+        <v>45483.63998842592</v>
       </c>
     </row>
     <row r="17">
@@ -946,18 +1015,18 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qqY+0Xe0fupfP8Z6YYIGwKplrkgy+KSLyicBDqrdvT0=</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45482.93155092592</v>
+        <v>45483.64195601852</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>45482.93155092592</v>
+        <v>45483.64195601852</v>
       </c>
     </row>
     <row r="18">
@@ -965,18 +1034,18 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:jJ/9bPlGqs4gt59G2Wx7wBt60tAp4DjmAxEy0fp1cPs=</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45482.93203703704</v>
+        <v>45483.64231481482</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>45482.93203703704</v>
+        <v>45483.64231481482</v>
       </c>
     </row>
     <row r="19">
@@ -984,18 +1053,18 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:gkfLFvhiKgQ/Vv1TVyz4NmAbbKhUmMNBpIYipjA54cA=</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45482.93207175926</v>
+        <v>45483.64239583333</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>45482.93207175926</v>
+        <v>45483.64239583333</v>
       </c>
     </row>
     <row r="20">
@@ -1003,18 +1072,18 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:GijBaKi1yjvouFHF2UMYlIe+SM3YQxw08US7U0jAZ5s=</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45482.93293981482</v>
+        <v>45483.64287037037</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>45482.93293981482</v>
+        <v>45483.64287037037</v>
       </c>
     </row>
     <row r="21">
@@ -1022,18 +1091,18 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:jJ/9bPlGqs4gt59G2Wx7wBt60tAp4DjmAxEy0fp1cPs=</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45482.93313657407</v>
+        <v>45485.64412037037</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>45482.93313657407</v>
+        <v>45485.64412037037</v>
       </c>
     </row>
     <row r="22">
@@ -1041,18 +1110,18 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:qqY+0Xe0fupfP8Z6YYIGwKplrkgy+KSLyicBDqrdvT0=</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45482.93680555555</v>
+        <v>45485.64423611111</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>45482.93680555555</v>
+        <v>45485.64423611111</v>
       </c>
     </row>
     <row r="23">
@@ -1060,18 +1129,18 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:GijBaKi1yjvouFHF2UMYlIe+SM3YQxw08US7U0jAZ5s=</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45482.93702546296</v>
+        <v>45485.64440972222</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>45482.93702546296</v>
+        <v>45485.64440972222</v>
       </c>
     </row>
     <row r="24">
@@ -1079,18 +1148,18 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:GijBaKi1yjvouFHF2UMYlIe+SM3YQxw08US7U0jAZ5s=</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45482.93811342592</v>
+        <v>45485.64456018519</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>45482.93811342592</v>
+        <v>45485.64456018519</v>
       </c>
     </row>
     <row r="25">
@@ -1098,7 +1167,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1106,10 +1175,10 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45482.93824074074</v>
+        <v>45485.64599537037</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>45482.93824074074</v>
+        <v>45485.64599537037</v>
       </c>
     </row>
     <row r="26">
@@ -1117,7 +1186,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1125,10 +1194,10 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45482.93923611111</v>
+        <v>45485.64649305555</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>45482.93923611111</v>
+        <v>45485.64649305555</v>
       </c>
     </row>
     <row r="27">
@@ -1136,18 +1205,18 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:LGBBiRiUOI1dLJk2sbR7x2ne628XUbE1K708+xz1CXU=</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45482.93930555556</v>
+        <v>45485.64655092593</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>45482.93930555556</v>
+        <v>45485.64655092593</v>
       </c>
     </row>
     <row r="28">
@@ -1155,18 +1224,18 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:uBFS5kqH6cHAIKnVr9HZKWjaf5c4aaBwzQgzeTMfnM9AOkGGEnbTeaNO3g3gfZ8ThrBPXX3zPS4JPr4QMQX/JTidRv7mqM0hACfcRmRgWmygxtqVFiOxdpCtZ1Q4mw8Uf2NWF3Jf4rC+Mq/hrwh+kA==</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45482.94104166667</v>
+        <v>45485.64799768518</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>45482.94104166667</v>
+        <v>45485.64799768518</v>
       </c>
     </row>
     <row r="29">
@@ -1174,607 +1243,18 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:uBFS5kqH6cHAIKnVr9HZKWjaf5c4aaBwzQgzeTMfnM9AOkGGEnbTeaNO3g3gfZ8ThrBPXX3zPS4JPr4QMQX/JTidRv7mqM0hACfcRmRgWmygxtqVFiOxdpCtZ1Q4mw8Uf2NWF3Jf4rC+Mq/hrwh+kA==</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45482.94114583333</v>
+        <v>45485.64818287037</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>45482.94114583333</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>29</v>
-      </c>
-      <c r="B30" t="n">
-        <v>2</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>45482.94344907408</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>45482.94344907408</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="n">
-        <v>2</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>45482.94362268518</v>
-      </c>
-      <c r="E31" s="2" t="n">
-        <v>45482.94362268518</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" t="n">
-        <v>2</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>45482.9446875</v>
-      </c>
-      <c r="E32" s="2" t="n">
-        <v>45482.9446875</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" t="n">
-        <v>2</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>45482.94583333333</v>
-      </c>
-      <c r="E33" s="2" t="n">
-        <v>45482.94583333333</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>33</v>
-      </c>
-      <c r="B34" t="n">
-        <v>2</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>45482.94712962963</v>
-      </c>
-      <c r="E34" s="2" t="n">
-        <v>45482.94712962963</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="n">
-        <v>2</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>45482.94723379629</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>45482.94723379629</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>35</v>
-      </c>
-      <c r="B36" t="n">
-        <v>2</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>45482.94753472223</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>45482.94753472223</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>36</v>
-      </c>
-      <c r="B37" t="n">
-        <v>2</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>45482.94770833333</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>45482.94770833333</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>37</v>
-      </c>
-      <c r="B38" t="n">
-        <v>2</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>45482.94822916666</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>45482.94822916666</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>38</v>
-      </c>
-      <c r="B39" t="n">
-        <v>2</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>45482.94829861111</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>45482.94829861111</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>39</v>
-      </c>
-      <c r="B40" t="n">
-        <v>2</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>45482.94902777778</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>45482.94902777778</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40</v>
-      </c>
-      <c r="B41" t="n">
-        <v>2</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>45482.94914351852</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>45482.94914351852</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>41</v>
-      </c>
-      <c r="B42" t="n">
-        <v>2</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>45482.94984953704</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>45482.94984953704</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>42</v>
-      </c>
-      <c r="B43" t="n">
-        <v>2</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>45482.94994212963</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>45482.94994212963</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>43</v>
-      </c>
-      <c r="B44" t="n">
-        <v>2</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>45482.95493055556</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>45482.95493055556</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>44</v>
-      </c>
-      <c r="B45" t="n">
-        <v>2</v>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>45482.95545138889</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>45482.95545138889</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>45</v>
-      </c>
-      <c r="B46" t="n">
-        <v>2</v>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>45482.95664351852</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>45482.95664351852</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>46</v>
-      </c>
-      <c r="B47" t="n">
-        <v>2</v>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>45482.95706018519</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>45482.95706018519</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>47</v>
-      </c>
-      <c r="B48" t="n">
-        <v>2</v>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>45482.95734953704</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>45482.95734953704</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>48</v>
-      </c>
-      <c r="B49" t="n">
-        <v>2</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>45482.95780092593</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>45482.95780092593</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>49</v>
-      </c>
-      <c r="B50" t="n">
-        <v>2</v>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>45482.97925925926</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>45482.97925925926</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>50</v>
-      </c>
-      <c r="B51" t="n">
-        <v>2</v>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>45482.97934027778</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>45482.97934027778</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>2</v>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>45482.98368055555</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>45482.98368055555</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>2</v>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>45482.98399305555</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>45482.98399305555</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>2</v>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>45482.9843287037</v>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>45482.9843287037</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>2</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>45482.98539351852</v>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>45482.98539351852</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>2</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>45482.98569444445</v>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>45482.98569444445</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>45482.98583333333</v>
-      </c>
-      <c r="E57" s="2" t="n">
-        <v>45482.98583333333</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>2</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>45482.98895833334</v>
-      </c>
-      <c r="E58" s="2" t="n">
-        <v>45482.98895833334</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>2</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:qCsQPaYdKSudUSJTF4cHsQ==</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>45482.98909722222</v>
-      </c>
-      <c r="E59" s="2" t="n">
-        <v>45482.98909722222</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>2</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:c/twMdskw/rg9o8jlKaWIw==</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>45482.99136574074</v>
-      </c>
-      <c r="E60" s="2" t="n">
-        <v>45482.99136574074</v>
+        <v>45485.64818287037</v>
       </c>
     </row>
   </sheetData>
@@ -1869,7 +1349,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="3">
@@ -1903,7 +1383,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="4">
@@ -1937,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="5">
@@ -1971,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="6">
@@ -2005,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
   </sheetData>
@@ -2019,7 +1499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2098,7 +1578,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="3">
@@ -2130,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="4">
@@ -2162,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="5">
@@ -2194,7 +1674,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="6">
@@ -2226,7 +1706,31 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:6WsIp1x+ClsvECFKbUn+TA==</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>45483.63146990741</v>
       </c>
     </row>
   </sheetData>
@@ -2240,7 +1744,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2301,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="3">
@@ -2325,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="4">
@@ -2349,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="5">
@@ -2373,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="6">
@@ -2397,7 +1901,31 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:6WsIp1x+ClsvECFKbUn+TA==</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:+9iEMbR8FRE8IMbGY46UEoe5qtgjtHAll5YUjvss5BY=</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>45545</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>45483.63146990741</v>
       </c>
     </row>
   </sheetData>
@@ -2411,7 +1939,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2478,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="3">
@@ -2503,7 +2031,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="4">
@@ -2528,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="5">
@@ -2553,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="6">
@@ -2578,7 +2106,32 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>300</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>bW3KcumFHUEs4RaypuSXXQ==:dwIa2JdWj/hfeHcbTOuIPA==</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>45483.63146990741</v>
       </c>
     </row>
   </sheetData>
@@ -2675,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="3">
@@ -2706,7 +2259,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="4">
@@ -2737,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="5">
@@ -2768,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="6">
@@ -2799,7 +2352,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
   </sheetData>
@@ -2916,7 +2469,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="3">
@@ -2957,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="4">
@@ -2998,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="5">
@@ -3039,7 +2592,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="6">
@@ -3068,7 +2621,7 @@
         <v>90</v>
       </c>
       <c r="G6" t="n">
-        <v>320</v>
+        <v>52</v>
       </c>
       <c r="H6" t="n">
         <v>32</v>
@@ -3080,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
   </sheetData>
@@ -3153,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="3">
@@ -3175,7 +2728,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="4">
@@ -3197,7 +2750,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="5">
@@ -3219,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="6">
@@ -3241,7 +2794,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
   </sheetData>
@@ -3318,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="3">
@@ -3344,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="4">
@@ -3370,7 +2923,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="5">
@@ -3396,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
     <row r="6">
@@ -3413,16 +2966,12 @@
           <t>bW3KcumFHUEs4RaypuSXXQ==:jMjXAAe7z1O/LsQBQlfg6Q==</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>bW3KcumFHUEs4RaypuSXXQ==:N2Q7sheplWnmKww8SYvgog==</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45481.25195601852</v>
+        <v>45483.63101851852</v>
       </c>
     </row>
   </sheetData>
